--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H2">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I2">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J2">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.48183333333333</v>
+        <v>42.99144133333333</v>
       </c>
       <c r="N2">
-        <v>103.4455</v>
+        <v>128.974324</v>
       </c>
       <c r="O2">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="P2">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="Q2">
-        <v>103.4192478308889</v>
+        <v>104.6807489923209</v>
       </c>
       <c r="R2">
-        <v>930.773230478</v>
+        <v>942.126740930888</v>
       </c>
       <c r="S2">
-        <v>0.00644952664217757</v>
+        <v>0.005879526839706932</v>
       </c>
       <c r="T2">
-        <v>0.006449526642177568</v>
+        <v>0.005879526839706934</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H3">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I3">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J3">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>166.821129</v>
       </c>
       <c r="O3">
-        <v>0.3538043298587108</v>
+        <v>0.3246035785195009</v>
       </c>
       <c r="P3">
-        <v>0.3538043298587107</v>
+        <v>0.324603578519501</v>
       </c>
       <c r="Q3">
-        <v>166.778793504596</v>
+        <v>135.398738212922</v>
       </c>
       <c r="R3">
-        <v>1501.009141541364</v>
+        <v>1218.588643916298</v>
       </c>
       <c r="S3">
-        <v>0.0104008131428012</v>
+        <v>0.007604841606967542</v>
       </c>
       <c r="T3">
-        <v>0.01040081314280119</v>
+        <v>0.007604841606967542</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H4">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I4">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J4">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.40497333333333</v>
+        <v>36.72715</v>
       </c>
       <c r="N4">
-        <v>91.21491999999999</v>
+        <v>110.18145</v>
       </c>
       <c r="O4">
-        <v>0.1934541136195998</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="P4">
-        <v>0.1934541136195997</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="Q4">
-        <v>91.19177168030222</v>
+        <v>89.42769656276667</v>
       </c>
       <c r="R4">
-        <v>820.72594512272</v>
+        <v>804.8492690649001</v>
       </c>
       <c r="S4">
-        <v>0.005686985482250032</v>
+        <v>0.005022819832828334</v>
       </c>
       <c r="T4">
-        <v>0.005686985482250029</v>
+        <v>0.005022819832828335</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H5">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I5">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J5">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.760378</v>
+        <v>7.381512666666667</v>
       </c>
       <c r="N5">
-        <v>20.281134</v>
+        <v>22.144538</v>
       </c>
       <c r="O5">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603855</v>
       </c>
       <c r="P5">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603857</v>
       </c>
       <c r="Q5">
-        <v>20.27598709888267</v>
+        <v>17.97339774332844</v>
       </c>
       <c r="R5">
-        <v>182.483883889944</v>
+        <v>161.760579689956</v>
       </c>
       <c r="S5">
-        <v>0.00126446983258405</v>
+        <v>0.00100949864659814</v>
       </c>
       <c r="T5">
-        <v>0.00126446983258405</v>
+        <v>0.001009498646598141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H6">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I6">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J6">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.91468833333333</v>
+        <v>28.60040066666667</v>
       </c>
       <c r="N6">
-        <v>89.74406500000001</v>
+        <v>85.801202</v>
       </c>
       <c r="O6">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="P6">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="Q6">
-        <v>89.72128995061556</v>
+        <v>69.63970665821378</v>
       </c>
       <c r="R6">
-        <v>807.4916095555401</v>
+        <v>626.757359923924</v>
       </c>
       <c r="S6">
-        <v>0.005595281942615345</v>
+        <v>0.00391140231941139</v>
       </c>
       <c r="T6">
-        <v>0.005595281942615342</v>
+        <v>0.003911402319411391</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>284.701828</v>
       </c>
       <c r="I7">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J7">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>34.48183333333333</v>
+        <v>42.99144133333333</v>
       </c>
       <c r="N7">
-        <v>103.4455</v>
+        <v>128.974324</v>
       </c>
       <c r="O7">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="P7">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="Q7">
-        <v>3272.346994263778</v>
+        <v>4079.913978651585</v>
       </c>
       <c r="R7">
-        <v>29451.122948374</v>
+        <v>36719.22580786427</v>
       </c>
       <c r="S7">
-        <v>0.2040731253089846</v>
+        <v>0.2291535356031622</v>
       </c>
       <c r="T7">
-        <v>0.2040731253089845</v>
+        <v>0.2291535356031622</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>284.701828</v>
       </c>
       <c r="I8">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J8">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>166.821129</v>
       </c>
       <c r="O8">
-        <v>0.3538043298587108</v>
+        <v>0.3246035785195009</v>
       </c>
       <c r="P8">
-        <v>0.3538043298587107</v>
+        <v>0.324603578519501</v>
       </c>
       <c r="Q8">
-        <v>5277.142263924868</v>
+        <v>5277.142263924867</v>
       </c>
       <c r="R8">
-        <v>47494.28037532381</v>
+        <v>47494.2803753238</v>
       </c>
       <c r="S8">
-        <v>0.3290980193686849</v>
+        <v>0.2963973784709367</v>
       </c>
       <c r="T8">
-        <v>0.3290980193686847</v>
+        <v>0.2963973784709367</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>284.701828</v>
       </c>
       <c r="I9">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J9">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.40497333333333</v>
+        <v>36.72715</v>
       </c>
       <c r="N9">
-        <v>91.21491999999999</v>
+        <v>110.18145</v>
       </c>
       <c r="O9">
-        <v>0.1934541136195998</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="P9">
-        <v>0.1934541136195997</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="Q9">
-        <v>2885.450496097084</v>
+        <v>3485.428914076733</v>
       </c>
       <c r="R9">
-        <v>25969.05446487376</v>
+        <v>31368.8602266906</v>
       </c>
       <c r="S9">
-        <v>0.1799451285866375</v>
+        <v>0.1957635290678712</v>
       </c>
       <c r="T9">
-        <v>0.1799451285866374</v>
+        <v>0.1957635290678712</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>284.701828</v>
       </c>
       <c r="I10">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J10">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.760378</v>
+        <v>7.381512666666667</v>
       </c>
       <c r="N10">
-        <v>20.281134</v>
+        <v>22.144538</v>
       </c>
       <c r="O10">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603855</v>
       </c>
       <c r="P10">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603857</v>
       </c>
       <c r="Q10">
-        <v>641.5639915236612</v>
+        <v>700.5100498683848</v>
       </c>
       <c r="R10">
-        <v>5774.075923712952</v>
+        <v>6304.590448815464</v>
       </c>
       <c r="S10">
-        <v>0.04000980613163752</v>
+        <v>0.03934503410925866</v>
       </c>
       <c r="T10">
-        <v>0.0400098061316375</v>
+        <v>0.03934503410925867</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>284.701828</v>
       </c>
       <c r="I11">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J11">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.91468833333333</v>
+        <v>28.60040066666667</v>
       </c>
       <c r="N11">
-        <v>89.74406500000001</v>
+        <v>85.801202</v>
       </c>
       <c r="O11">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="P11">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="Q11">
-        <v>2838.922150850091</v>
+        <v>2714.19545044414</v>
       </c>
       <c r="R11">
-        <v>25550.29935765082</v>
+        <v>24427.75905399726</v>
       </c>
       <c r="S11">
-        <v>0.1770434849508453</v>
+        <v>0.152446224857136</v>
       </c>
       <c r="T11">
-        <v>0.1770434849508452</v>
+        <v>0.152446224857136</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H12">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I12">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J12">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.48183333333333</v>
+        <v>42.99144133333333</v>
       </c>
       <c r="N12">
-        <v>103.4455</v>
+        <v>128.974324</v>
       </c>
       <c r="O12">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="P12">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="Q12">
-        <v>8.102265341999999</v>
+        <v>38.48698440667244</v>
       </c>
       <c r="R12">
-        <v>72.920388078</v>
+        <v>346.382859660052</v>
       </c>
       <c r="S12">
-        <v>0.0005052809537995247</v>
+        <v>0.002161670220901959</v>
       </c>
       <c r="T12">
-        <v>0.0005052809537995245</v>
+        <v>0.002161670220901959</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H13">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I13">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J13">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>166.821129</v>
       </c>
       <c r="O13">
-        <v>0.3538043298587108</v>
+        <v>0.3246035785195009</v>
       </c>
       <c r="P13">
-        <v>0.3538043298587107</v>
+        <v>0.324603578519501</v>
       </c>
       <c r="Q13">
-        <v>13.066098107796</v>
+        <v>49.78077799831299</v>
       </c>
       <c r="R13">
-        <v>117.594882970164</v>
+        <v>448.0270019848169</v>
       </c>
       <c r="S13">
-        <v>0.0008148400769007212</v>
+        <v>0.002796000440960203</v>
       </c>
       <c r="T13">
-        <v>0.0008148400769007208</v>
+        <v>0.002796000440960204</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H14">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I14">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J14">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.40497333333333</v>
+        <v>36.72715</v>
       </c>
       <c r="N14">
-        <v>91.21491999999999</v>
+        <v>110.18145</v>
       </c>
       <c r="O14">
-        <v>0.1934541136195998</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="P14">
-        <v>0.1934541136195997</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="Q14">
-        <v>7.144317394079999</v>
+        <v>32.87903837398333</v>
       </c>
       <c r="R14">
-        <v>64.29885654671999</v>
+        <v>295.91134536585</v>
       </c>
       <c r="S14">
-        <v>0.0004455405191946226</v>
+        <v>0.001846692829813151</v>
       </c>
       <c r="T14">
-        <v>0.0004455405191946224</v>
+        <v>0.001846692829813151</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H15">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I15">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J15">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.760378</v>
+        <v>7.381512666666667</v>
       </c>
       <c r="N15">
-        <v>20.281134</v>
+        <v>22.144538</v>
       </c>
       <c r="O15">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603855</v>
       </c>
       <c r="P15">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603857</v>
       </c>
       <c r="Q15">
-        <v>1.588499539416</v>
+        <v>6.608109756008222</v>
       </c>
       <c r="R15">
-        <v>14.296495854744</v>
+        <v>59.472987804074</v>
       </c>
       <c r="S15">
-        <v>9.906347527592761E-05</v>
+        <v>0.0003711528532627301</v>
       </c>
       <c r="T15">
-        <v>9.906347527592757E-05</v>
+        <v>0.0003711528532627302</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H16">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I16">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J16">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.91468833333333</v>
+        <v>28.60040066666667</v>
       </c>
       <c r="N16">
-        <v>89.74406500000001</v>
+        <v>85.801202</v>
       </c>
       <c r="O16">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="P16">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="Q16">
-        <v>7.02911414706</v>
+        <v>25.60377461988289</v>
       </c>
       <c r="R16">
-        <v>63.26202732354</v>
+        <v>230.433971578946</v>
       </c>
       <c r="S16">
-        <v>0.0004383561079123456</v>
+        <v>0.00143806842733282</v>
       </c>
       <c r="T16">
-        <v>0.0004383561079123453</v>
+        <v>0.00143806842733282</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H17">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I17">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J17">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.48183333333333</v>
+        <v>42.99144133333333</v>
       </c>
       <c r="N17">
-        <v>103.4455</v>
+        <v>128.974324</v>
       </c>
       <c r="O17">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="P17">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="Q17">
-        <v>129.2428767173333</v>
+        <v>220.8456010812889</v>
       </c>
       <c r="R17">
-        <v>1163.185890456</v>
+        <v>1987.6104097316</v>
       </c>
       <c r="S17">
-        <v>0.008059963635232988</v>
+        <v>0.01240407287383758</v>
       </c>
       <c r="T17">
-        <v>0.008059963635232984</v>
+        <v>0.01240407287383758</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H18">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I18">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J18">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>166.821129</v>
       </c>
       <c r="O18">
-        <v>0.3538043298587108</v>
+        <v>0.3246035785195009</v>
       </c>
       <c r="P18">
-        <v>0.3538043298587107</v>
+        <v>0.324603578519501</v>
       </c>
       <c r="Q18">
-        <v>208.423204578192</v>
+        <v>285.6515263229</v>
       </c>
       <c r="R18">
-        <v>1875.808841203728</v>
+        <v>2570.8637369061</v>
       </c>
       <c r="S18">
-        <v>0.01299788036529874</v>
+        <v>0.01604397973826061</v>
       </c>
       <c r="T18">
-        <v>0.01299788036529874</v>
+        <v>0.01604397973826062</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H19">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I19">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J19">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>30.40497333333333</v>
+        <v>36.72715</v>
       </c>
       <c r="N19">
-        <v>91.21491999999999</v>
+        <v>110.18145</v>
       </c>
       <c r="O19">
-        <v>0.1934541136195998</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="P19">
-        <v>0.1934541136195997</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="Q19">
-        <v>113.9622183694933</v>
+        <v>188.6661453116667</v>
       </c>
       <c r="R19">
-        <v>1025.65996532544</v>
+        <v>1697.995307805</v>
       </c>
       <c r="S19">
-        <v>0.007107017107469016</v>
+        <v>0.01059667298698221</v>
       </c>
       <c r="T19">
-        <v>0.007107017107469012</v>
+        <v>0.01059667298698222</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H20">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I20">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J20">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.760378</v>
+        <v>7.381512666666667</v>
       </c>
       <c r="N20">
-        <v>20.281134</v>
+        <v>22.144538</v>
       </c>
       <c r="O20">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603855</v>
       </c>
       <c r="P20">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603857</v>
       </c>
       <c r="Q20">
-        <v>25.338870238432</v>
+        <v>37.91858451824444</v>
       </c>
       <c r="R20">
-        <v>228.049832145888</v>
+        <v>341.2672606642</v>
       </c>
       <c r="S20">
-        <v>0.001580206026567491</v>
+        <v>0.002129745321320432</v>
       </c>
       <c r="T20">
-        <v>0.00158020602656749</v>
+        <v>0.002129745321320433</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H21">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I21">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J21">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.91468833333333</v>
+        <v>28.60040066666667</v>
       </c>
       <c r="N21">
-        <v>89.74406500000001</v>
+        <v>85.801202</v>
       </c>
       <c r="O21">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="P21">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="Q21">
-        <v>112.1245595884533</v>
+        <v>146.9193048779778</v>
       </c>
       <c r="R21">
-        <v>1009.12103629608</v>
+        <v>1322.2737439018</v>
       </c>
       <c r="S21">
-        <v>0.006992415333465308</v>
+        <v>0.008251908823890085</v>
       </c>
       <c r="T21">
-        <v>0.006992415333465305</v>
+        <v>0.008251908823890087</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H22">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I22">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J22">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>34.48183333333333</v>
+        <v>42.99144133333333</v>
       </c>
       <c r="N22">
-        <v>103.4455</v>
+        <v>128.974324</v>
       </c>
       <c r="O22">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="P22">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="Q22">
-        <v>4.899868516666667</v>
+        <v>24.24539593242489</v>
       </c>
       <c r="R22">
-        <v>44.09881665</v>
+        <v>218.208563391824</v>
       </c>
       <c r="S22">
-        <v>0.000305570125525222</v>
+        <v>0.001361773368038001</v>
       </c>
       <c r="T22">
-        <v>0.0003055701255252218</v>
+        <v>0.001361773368038001</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H23">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I23">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J23">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>166.821129</v>
       </c>
       <c r="O23">
-        <v>0.3538043298587108</v>
+        <v>0.3246035785195009</v>
       </c>
       <c r="P23">
-        <v>0.3538043298587107</v>
+        <v>0.324603578519501</v>
       </c>
       <c r="Q23">
-        <v>7.901760810300001</v>
+        <v>31.360073827556</v>
       </c>
       <c r="R23">
-        <v>71.11584729270001</v>
+        <v>282.240664448004</v>
       </c>
       <c r="S23">
-        <v>0.0004927769050252477</v>
+        <v>0.001761378262375943</v>
       </c>
       <c r="T23">
-        <v>0.0004927769050252473</v>
+        <v>0.001761378262375943</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H24">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I24">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J24">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.40497333333333</v>
+        <v>36.72715</v>
       </c>
       <c r="N24">
-        <v>91.21491999999999</v>
+        <v>110.18145</v>
       </c>
       <c r="O24">
-        <v>0.1934541136195998</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="P24">
-        <v>0.1934541136195997</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="Q24">
-        <v>4.320546710666666</v>
+        <v>20.71259454446667</v>
       </c>
       <c r="R24">
-        <v>38.884920396</v>
+        <v>186.4133509002</v>
       </c>
       <c r="S24">
-        <v>0.0002694419240486351</v>
+        <v>0.001163349103979879</v>
       </c>
       <c r="T24">
-        <v>0.0002694419240486349</v>
+        <v>0.00116334910397988</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H25">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I25">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J25">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.760378</v>
+        <v>7.381512666666667</v>
       </c>
       <c r="N25">
-        <v>20.281134</v>
+        <v>22.144538</v>
       </c>
       <c r="O25">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603855</v>
       </c>
       <c r="P25">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603857</v>
       </c>
       <c r="Q25">
-        <v>0.9606497138000001</v>
+        <v>4.162868041476445</v>
       </c>
       <c r="R25">
-        <v>8.645847424200001</v>
+        <v>37.465812373288</v>
       </c>
       <c r="S25">
-        <v>5.99089246238246E-05</v>
+        <v>0.0002338127555985911</v>
       </c>
       <c r="T25">
-        <v>5.990892462382457E-05</v>
+        <v>0.0002338127555985912</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H26">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I26">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J26">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>29.91468833333333</v>
+        <v>28.60040066666667</v>
       </c>
       <c r="N26">
-        <v>89.74406500000001</v>
+        <v>85.801202</v>
       </c>
       <c r="O26">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="P26">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="Q26">
-        <v>4.250877212166666</v>
+        <v>16.12944382610578</v>
       </c>
       <c r="R26">
-        <v>38.2578949095</v>
+        <v>145.164994434952</v>
       </c>
       <c r="S26">
-        <v>0.0002650971304425391</v>
+        <v>0.0009059306395686081</v>
       </c>
       <c r="T26">
-        <v>0.000265097130442539</v>
+        <v>0.0009059306395686084</v>
       </c>
     </row>
   </sheetData>
